--- a/report/by_model_sampling.xlsx
+++ b/report/by_model_sampling.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,28 +532,32 @@
       <c r="C4" t="n">
         <v>108</v>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>AVG</t>
+        </is>
+      </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>51.3% ± 1.0%</t>
+          <t>52.8% ± 3.9%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>52.0%</t>
+          <t>55.5%</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>51.8% ± 1.1%</t>
+          <t>61.8% ± 16.7%</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>53.4%</t>
+          <t>73.7%</t>
         </is>
       </c>
     </row>
@@ -571,30 +575,30 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>AVG</t>
+          <t>LAST</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>52.8% ± 3.9%</t>
+          <t>46.0% ± 16.3%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>55.5%</t>
+          <t>53.6%</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>61.8% ± 16.7%</t>
+          <t>57.4% ± 7.2%</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>73.7%</t>
+          <t>70.0%</t>
         </is>
       </c>
     </row>
@@ -604,38 +608,38 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>bert-base-cased</t>
+          <t>bert-large-cased</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>108</v>
+        <v>333</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LAST</t>
+          <t>AVG</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>46.0% ± 16.3%</t>
+          <t>53.5% ± 3.4%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>53.6%</t>
+          <t>59.6%</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>57.4% ± 7.2%</t>
+          <t>61.1% ± 11.0%</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>70.0%</t>
+          <t>77.7%</t>
         </is>
       </c>
     </row>
@@ -651,28 +655,32 @@
       <c r="C7" t="n">
         <v>333</v>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>LAST</t>
+        </is>
+      </c>
       <c r="E7" t="n">
         <v>7</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>52.3% ± 1.3%</t>
+          <t>54.5% ± 4.8%</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>55.0%</t>
+          <t>61.8%</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>57.6% ± 10.1%</t>
+          <t>65.1% ± 14.8%</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>75.2%</t>
+          <t>85.4%</t>
         </is>
       </c>
     </row>
@@ -690,30 +698,30 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>AVG</t>
+          <t>MIDDLE</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>53.5% ± 3.4%</t>
+          <t>53.4% ± 3.1%</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>59.6%</t>
+          <t>57.0%</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>61.1% ± 11.0%</t>
+          <t>60.2% ± 12.4%</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>77.7%</t>
+          <t>74.5%</t>
         </is>
       </c>
     </row>
@@ -731,30 +739,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LAST</t>
+          <t>SENTENCES</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>54.5% ± 4.8%</t>
+          <t>51.6% ± nan%</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>61.8%</t>
+          <t>51.6%</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>65.1% ± 14.8%</t>
+          <t>53.4% ± nan%</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>85.4%</t>
+          <t>53.4%</t>
         </is>
       </c>
     </row>
@@ -764,38 +772,38 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>bert-large-cased</t>
+          <t>roberta-large</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>333</v>
+        <v>355</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MIDDLE</t>
+          <t>AVG</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>53.4% ± 3.1%</t>
+          <t>53.4% ± 8.0%</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>57.0%</t>
+          <t>72.5%</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>60.2% ± 12.4%</t>
+          <t>56.6% ± 15.7%</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>74.5%</t>
+          <t>90.9%</t>
         </is>
       </c>
     </row>
@@ -805,38 +813,38 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>bert-large-cased</t>
+          <t>roberta-large</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>333</v>
+        <v>355</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>SENTENCES</t>
+          <t>LAST</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>51.6% ± nan%</t>
+          <t>60.6% ± 11.6%</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>51.6%</t>
+          <t>73.3%</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>53.4% ± nan%</t>
+          <t>69.2% ± 20.7%</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>53.4%</t>
+          <t>91.4%</t>
         </is>
       </c>
     </row>
@@ -852,28 +860,32 @@
       <c r="C12" t="n">
         <v>355</v>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>SENTENCES</t>
+        </is>
+      </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>70.7% ± nan%</t>
+          <t>54.9% ± 9.8%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>70.7%</t>
+          <t>69.6%</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>91.8% ± nan%</t>
+          <t>60.2% ± 19.8%</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>91.8%</t>
+          <t>89.9%</t>
         </is>
       </c>
     </row>
@@ -883,11 +895,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>roberta-large</t>
+          <t>microsoft/deberta-v2-xlarge</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>355</v>
+        <v>884</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -895,26 +907,26 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>53.4% ± 8.0%</t>
+          <t>48.4% ± nan%</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>72.5%</t>
+          <t>48.4%</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>56.6% ± 15.7%</t>
+          <t>49.9% ± nan%</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>90.9%</t>
+          <t>49.9%</t>
         </is>
       </c>
     </row>
@@ -924,11 +936,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>roberta-large</t>
+          <t>microsoft/deberta-v2-xlarge</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>355</v>
+        <v>884</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -936,184 +948,24 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>60.6% ± 11.6%</t>
+          <t>56.3% ± 13.6%</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>73.3%</t>
+          <t>76.6%</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>69.2% ± 20.7%</t>
+          <t>65.0% ± 19.1%</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
-        <is>
-          <t>91.4%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>roberta-large</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>355</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>SENTENCES</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>4</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>54.9% ± 9.8%</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>69.6%</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>60.2% ± 19.8%</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>89.9%</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>microsoft/deberta-v2-xlarge</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>884</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="n">
-        <v>6</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>53.0% ± 9.2%</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>70.8%</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>51.0% ± 1.6%</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>53.4%</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>microsoft/deberta-v2-xlarge</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>884</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>AVG</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>48.4% ± nan%</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>48.4%</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>49.9% ± nan%</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>49.9%</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>microsoft/deberta-v2-xlarge</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>884</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>LAST</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>4</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>56.3% ± 13.6%</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>76.6%</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>65.0% ± 19.1%</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
         <is>
           <t>89.9%</t>
         </is>
